--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd72</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H2">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I2">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J2">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29385167841995</v>
+        <v>1.305848666666667</v>
       </c>
       <c r="N2">
-        <v>1.29385167841995</v>
+        <v>3.917546</v>
       </c>
       <c r="O2">
-        <v>0.03599246557748216</v>
+        <v>0.02167013056939775</v>
       </c>
       <c r="P2">
-        <v>0.03599246557748216</v>
+        <v>0.02198205808172309</v>
       </c>
       <c r="Q2">
-        <v>1.231264930678384</v>
+        <v>1.475711720095111</v>
       </c>
       <c r="R2">
-        <v>1.231264930678384</v>
+        <v>13.281405480856</v>
       </c>
       <c r="S2">
-        <v>0.0003369866020480944</v>
+        <v>0.0002014019463132338</v>
       </c>
       <c r="T2">
-        <v>0.0003369866020480944</v>
+        <v>0.0002055486638252043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H3">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I3">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J3">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.8205661042268</v>
+        <v>2.242972</v>
       </c>
       <c r="N3">
-        <v>1.8205661042268</v>
+        <v>6.728916</v>
       </c>
       <c r="O3">
-        <v>0.05064464801555536</v>
+        <v>0.03722138509937334</v>
       </c>
       <c r="P3">
-        <v>0.05064464801555536</v>
+        <v>0.03775716286140247</v>
       </c>
       <c r="Q3">
-        <v>1.732500900608379</v>
+        <v>2.534734807130667</v>
       </c>
       <c r="R3">
-        <v>1.732500900608379</v>
+        <v>22.812613264176</v>
       </c>
       <c r="S3">
-        <v>0.0004741705680024617</v>
+        <v>0.0003459351285162343</v>
       </c>
       <c r="T3">
-        <v>0.0004741705680024617</v>
+        <v>0.0003530576776359585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H4">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I4">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J4">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1666899403113</v>
+        <v>37.65227266666667</v>
       </c>
       <c r="N4">
-        <v>21.1666899403113</v>
+        <v>112.956818</v>
       </c>
       <c r="O4">
-        <v>0.5888166099504172</v>
+        <v>0.6248271225822742</v>
       </c>
       <c r="P4">
-        <v>0.5888166099504172</v>
+        <v>0.6338211048453863</v>
       </c>
       <c r="Q4">
-        <v>20.14280574561288</v>
+        <v>42.55003009211644</v>
       </c>
       <c r="R4">
-        <v>20.14280574561288</v>
+        <v>382.950270829048</v>
       </c>
       <c r="S4">
-        <v>0.005512912367437482</v>
+        <v>0.005807136149658413</v>
       </c>
       <c r="T4">
-        <v>0.005512912367437482</v>
+        <v>0.005926700799389921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H5">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I5">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J5">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.28667199335155</v>
+        <v>16.49391266666667</v>
       </c>
       <c r="N5">
-        <v>9.28667199335155</v>
+        <v>49.481738</v>
       </c>
       <c r="O5">
-        <v>0.2583373563021221</v>
+        <v>0.2737110740399041</v>
       </c>
       <c r="P5">
-        <v>0.2583373563021221</v>
+        <v>0.2776509679019989</v>
       </c>
       <c r="Q5">
-        <v>8.837453116798134</v>
+        <v>18.63941883446311</v>
       </c>
       <c r="R5">
-        <v>8.837453116798134</v>
+        <v>167.754769510168</v>
       </c>
       <c r="S5">
-        <v>0.002418734768112265</v>
+        <v>0.002543867599809038</v>
       </c>
       <c r="T5">
-        <v>0.002418734768112265</v>
+        <v>0.002596243957224456</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H6">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I6">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J6">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.38006819187644</v>
+        <v>2.5652985</v>
       </c>
       <c r="N6">
-        <v>2.38006819187644</v>
+        <v>5.130597</v>
       </c>
       <c r="O6">
-        <v>0.06620892015442324</v>
+        <v>0.04257028770905066</v>
       </c>
       <c r="P6">
-        <v>0.06620892015442324</v>
+        <v>0.02878870630948921</v>
       </c>
       <c r="Q6">
-        <v>2.264938513554573</v>
+        <v>2.898989108482</v>
       </c>
       <c r="R6">
-        <v>2.264938513554573</v>
+        <v>17.393934650892</v>
       </c>
       <c r="S6">
-        <v>0.0006198941547942012</v>
+        <v>0.0003956477683537748</v>
       </c>
       <c r="T6">
-        <v>0.0006198941547942012</v>
+        <v>0.0002691959093717347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H7">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I7">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J7">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.29385167841995</v>
+        <v>1.305848666666667</v>
       </c>
       <c r="N7">
-        <v>1.29385167841995</v>
+        <v>3.917546</v>
       </c>
       <c r="O7">
-        <v>0.03599246557748216</v>
+        <v>0.02167013056939775</v>
       </c>
       <c r="P7">
-        <v>0.03599246557748216</v>
+        <v>0.02198205808172309</v>
       </c>
       <c r="Q7">
-        <v>64.45497806208729</v>
+        <v>1.311539119873111</v>
       </c>
       <c r="R7">
-        <v>64.45497806208729</v>
+        <v>11.803852078858</v>
       </c>
       <c r="S7">
-        <v>0.01764077210439191</v>
+        <v>0.0001789960246377698</v>
       </c>
       <c r="T7">
-        <v>0.01764077210439191</v>
+        <v>0.0001826814207500008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H8">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I8">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J8">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.8205661042268</v>
+        <v>2.242972</v>
       </c>
       <c r="N8">
-        <v>1.8205661042268</v>
+        <v>6.728916</v>
       </c>
       <c r="O8">
-        <v>0.05064464801555536</v>
+        <v>0.03722138509937334</v>
       </c>
       <c r="P8">
-        <v>0.05064464801555536</v>
+        <v>0.03775716286140247</v>
       </c>
       <c r="Q8">
-        <v>90.69397231977867</v>
+        <v>2.252746124318667</v>
       </c>
       <c r="R8">
-        <v>90.69397231977867</v>
+        <v>20.274715118868</v>
       </c>
       <c r="S8">
-        <v>0.02482215873836932</v>
+        <v>0.0003074499225079893</v>
       </c>
       <c r="T8">
-        <v>0.02482215873836932</v>
+        <v>0.0003137800896243241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H9">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I9">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J9">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.1666899403113</v>
+        <v>37.65227266666667</v>
       </c>
       <c r="N9">
-        <v>21.1666899403113</v>
+        <v>112.956818</v>
       </c>
       <c r="O9">
-        <v>0.5888166099504172</v>
+        <v>0.6248271225822742</v>
       </c>
       <c r="P9">
-        <v>0.5888166099504172</v>
+        <v>0.6338211048453863</v>
       </c>
       <c r="Q9">
-        <v>1054.447398032399</v>
+        <v>37.81634872019045</v>
       </c>
       <c r="R9">
-        <v>1054.447398032399</v>
+        <v>340.347138481714</v>
       </c>
       <c r="S9">
-        <v>0.2885931669519863</v>
+        <v>0.005161093546248616</v>
       </c>
       <c r="T9">
-        <v>0.2885931669519863</v>
+        <v>0.005267356655324345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H10">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I10">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J10">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.28667199335155</v>
+        <v>16.49391266666667</v>
       </c>
       <c r="N10">
-        <v>9.28667199335155</v>
+        <v>49.481738</v>
       </c>
       <c r="O10">
-        <v>0.2583373563021221</v>
+        <v>0.2737110740399041</v>
       </c>
       <c r="P10">
-        <v>0.2583373563021221</v>
+        <v>0.2776509679019989</v>
       </c>
       <c r="Q10">
-        <v>462.6281741445436</v>
+        <v>16.56578764009711</v>
       </c>
       <c r="R10">
-        <v>462.6281741445436</v>
+        <v>149.092088760874</v>
       </c>
       <c r="S10">
-        <v>0.1266173449208763</v>
+        <v>0.002260862895845427</v>
       </c>
       <c r="T10">
-        <v>0.1266173449208763</v>
+        <v>0.002307412395162509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H11">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I11">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J11">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.38006819187644</v>
+        <v>2.5652985</v>
       </c>
       <c r="N11">
-        <v>2.38006819187644</v>
+        <v>5.130597</v>
       </c>
       <c r="O11">
-        <v>0.06620892015442324</v>
+        <v>0.04257028770905066</v>
       </c>
       <c r="P11">
-        <v>0.06620892015442324</v>
+        <v>0.02878870630948921</v>
       </c>
       <c r="Q11">
-        <v>118.5663284689698</v>
+        <v>2.5764772157635</v>
       </c>
       <c r="R11">
-        <v>118.5663284689698</v>
+        <v>15.458863294581</v>
       </c>
       <c r="S11">
-        <v>0.03245058244781034</v>
+        <v>0.0003516320422345268</v>
       </c>
       <c r="T11">
-        <v>0.03245058244781034</v>
+        <v>0.000239247924403617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H12">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I12">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J12">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.29385167841995</v>
+        <v>1.305848666666667</v>
       </c>
       <c r="N12">
-        <v>1.29385167841995</v>
+        <v>3.917546</v>
       </c>
       <c r="O12">
-        <v>0.03599246557748216</v>
+        <v>0.02167013056939775</v>
       </c>
       <c r="P12">
-        <v>0.03599246557748216</v>
+        <v>0.02198205808172309</v>
       </c>
       <c r="Q12">
-        <v>63.29280418890973</v>
+        <v>89.02695150204956</v>
       </c>
       <c r="R12">
-        <v>63.29280418890973</v>
+        <v>801.242563518446</v>
       </c>
       <c r="S12">
-        <v>0.01732269512944274</v>
+        <v>0.0121502059397421</v>
       </c>
       <c r="T12">
-        <v>0.01732269512944274</v>
+        <v>0.01240036971753409</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H13">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I13">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J13">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.8205661042268</v>
+        <v>2.242972</v>
       </c>
       <c r="N13">
-        <v>1.8205661042268</v>
+        <v>6.728916</v>
       </c>
       <c r="O13">
-        <v>0.05064464801555536</v>
+        <v>0.03722138509937334</v>
       </c>
       <c r="P13">
-        <v>0.05064464801555536</v>
+        <v>0.03775716286140247</v>
       </c>
       <c r="Q13">
-        <v>89.05868877374743</v>
+        <v>152.9158504822573</v>
       </c>
       <c r="R13">
-        <v>89.05868877374743</v>
+        <v>1376.242654340316</v>
       </c>
       <c r="S13">
-        <v>0.02437459572261885</v>
+        <v>0.02086962479859219</v>
       </c>
       <c r="T13">
-        <v>0.02437459572261885</v>
+        <v>0.02129931497887468</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H14">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I14">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J14">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.1666899403113</v>
+        <v>37.65227266666667</v>
       </c>
       <c r="N14">
-        <v>21.1666899403113</v>
+        <v>112.956818</v>
       </c>
       <c r="O14">
-        <v>0.5888166099504172</v>
+        <v>0.6248271225822742</v>
       </c>
       <c r="P14">
-        <v>0.5888166099504172</v>
+        <v>0.6338211048453863</v>
       </c>
       <c r="Q14">
-        <v>1035.434883351952</v>
+        <v>2566.964410350724</v>
       </c>
       <c r="R14">
-        <v>1035.434883351952</v>
+        <v>23102.67969315651</v>
       </c>
       <c r="S14">
-        <v>0.2833896055096708</v>
+        <v>0.3503337551104613</v>
       </c>
       <c r="T14">
-        <v>0.2833896055096708</v>
+        <v>0.357546868707147</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H15">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I15">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J15">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.28667199335155</v>
+        <v>16.49391266666667</v>
       </c>
       <c r="N15">
-        <v>9.28667199335155</v>
+        <v>49.481738</v>
       </c>
       <c r="O15">
-        <v>0.2583373563021221</v>
+        <v>0.2737110740399041</v>
       </c>
       <c r="P15">
-        <v>0.2583373563021221</v>
+        <v>0.2776509679019989</v>
       </c>
       <c r="Q15">
-        <v>454.2866248468505</v>
+        <v>1124.481573199938</v>
       </c>
       <c r="R15">
-        <v>454.2866248468505</v>
+        <v>10120.33415879944</v>
       </c>
       <c r="S15">
-        <v>0.1243343347549834</v>
+        <v>0.1534668149286217</v>
       </c>
       <c r="T15">
-        <v>0.1243343347549834</v>
+        <v>0.1566265834443694</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H16">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I16">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J16">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.38006819187644</v>
+        <v>2.5652985</v>
       </c>
       <c r="N16">
-        <v>2.38006819187644</v>
+        <v>5.130597</v>
       </c>
       <c r="O16">
-        <v>0.06620892015442324</v>
+        <v>0.04257028770905066</v>
       </c>
       <c r="P16">
-        <v>0.06620892015442324</v>
+        <v>0.02878870630948921</v>
       </c>
       <c r="Q16">
-        <v>116.4284844524457</v>
+        <v>174.8906370067745</v>
       </c>
       <c r="R16">
-        <v>116.4284844524457</v>
+        <v>1049.343822040647</v>
       </c>
       <c r="S16">
-        <v>0.03186547296171431</v>
+        <v>0.02386869617248514</v>
       </c>
       <c r="T16">
-        <v>0.03186547296171431</v>
+        <v>0.01624009001340922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H17">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I17">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J17">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.29385167841995</v>
+        <v>1.305848666666667</v>
       </c>
       <c r="N17">
-        <v>1.29385167841995</v>
+        <v>3.917546</v>
       </c>
       <c r="O17">
-        <v>0.03599246557748216</v>
+        <v>0.02167013056939775</v>
       </c>
       <c r="P17">
-        <v>0.03599246557748216</v>
+        <v>0.02198205808172309</v>
       </c>
       <c r="Q17">
-        <v>2.528438174902376</v>
+        <v>64.07573539042289</v>
       </c>
       <c r="R17">
-        <v>2.528438174902376</v>
+        <v>576.681618513806</v>
       </c>
       <c r="S17">
-        <v>0.0006920117415994198</v>
+        <v>0.008744917888333356</v>
       </c>
       <c r="T17">
-        <v>0.0006920117415994198</v>
+        <v>0.008924969297031753</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H18">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I18">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J18">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.8205661042268</v>
+        <v>2.242972</v>
       </c>
       <c r="N18">
-        <v>1.8205661042268</v>
+        <v>6.728916</v>
       </c>
       <c r="O18">
-        <v>0.05064464801555536</v>
+        <v>0.03722138509937334</v>
       </c>
       <c r="P18">
-        <v>0.05064464801555536</v>
+        <v>0.03775716286140247</v>
       </c>
       <c r="Q18">
-        <v>3.557740747750737</v>
+        <v>110.0587564460973</v>
       </c>
       <c r="R18">
-        <v>3.557740747750737</v>
+        <v>990.5288080148761</v>
       </c>
       <c r="S18">
-        <v>0.0009737229865647269</v>
+        <v>0.01502058122546424</v>
       </c>
       <c r="T18">
-        <v>0.0009737229865647269</v>
+        <v>0.01532984391307867</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H19">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I19">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J19">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.1666899403113</v>
+        <v>37.65227266666667</v>
       </c>
       <c r="N19">
-        <v>21.1666899403113</v>
+        <v>112.956818</v>
       </c>
       <c r="O19">
-        <v>0.5888166099504172</v>
+        <v>0.6248271225822742</v>
       </c>
       <c r="P19">
-        <v>0.5888166099504172</v>
+        <v>0.6338211048453863</v>
       </c>
       <c r="Q19">
-        <v>41.36383464506698</v>
+        <v>1847.531893872378</v>
       </c>
       <c r="R19">
-        <v>41.36383464506698</v>
+        <v>16627.7870448514</v>
       </c>
       <c r="S19">
-        <v>0.01132092512132254</v>
+        <v>0.2521471600684243</v>
       </c>
       <c r="T19">
-        <v>0.01132092512132254</v>
+        <v>0.2573386840997919</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H20">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I20">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J20">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.28667199335155</v>
+        <v>16.49391266666667</v>
       </c>
       <c r="N20">
-        <v>9.28667199335155</v>
+        <v>49.481738</v>
       </c>
       <c r="O20">
-        <v>0.2583373563021221</v>
+        <v>0.2737110740399041</v>
       </c>
       <c r="P20">
-        <v>0.2583373563021221</v>
+        <v>0.2776509679019989</v>
       </c>
       <c r="Q20">
-        <v>18.14796578110213</v>
+        <v>809.327765582391</v>
       </c>
       <c r="R20">
-        <v>18.14796578110213</v>
+        <v>7283.949890241518</v>
       </c>
       <c r="S20">
-        <v>0.00496694185815006</v>
+        <v>0.1104553043619716</v>
       </c>
       <c r="T20">
-        <v>0.00496694185815006</v>
+        <v>0.1127294976022667</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H21">
+        <v>147.204811</v>
+      </c>
+      <c r="I21">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J21">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.5652985</v>
+      </c>
+      <c r="N21">
+        <v>5.130597</v>
+      </c>
+      <c r="O21">
+        <v>0.04257028770905066</v>
+      </c>
+      <c r="P21">
+        <v>0.02878870630948921</v>
+      </c>
+      <c r="Q21">
+        <v>125.8747602836945</v>
+      </c>
+      <c r="R21">
+        <v>755.248561702167</v>
+      </c>
+      <c r="S21">
+        <v>0.01717911524834531</v>
+      </c>
+      <c r="T21">
+        <v>0.01168854703950974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.214174</v>
+      </c>
+      <c r="H22">
+        <v>4.428348</v>
+      </c>
+      <c r="I22">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J22">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.305848666666667</v>
+      </c>
+      <c r="N22">
+        <v>3.917546</v>
+      </c>
+      <c r="O22">
+        <v>0.02167013056939775</v>
+      </c>
+      <c r="P22">
+        <v>0.02198205808172309</v>
+      </c>
+      <c r="Q22">
+        <v>2.891376165668</v>
+      </c>
+      <c r="R22">
+        <v>17.348256994008</v>
+      </c>
+      <c r="S22">
+        <v>0.000394608770371288</v>
+      </c>
+      <c r="T22">
+        <v>0.0002684889825820432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.214174</v>
+      </c>
+      <c r="H23">
+        <v>4.428348</v>
+      </c>
+      <c r="I23">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J23">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.242972</v>
+      </c>
+      <c r="N23">
+        <v>6.728916</v>
+      </c>
+      <c r="O23">
+        <v>0.03722138509937334</v>
+      </c>
+      <c r="P23">
+        <v>0.03775716286140247</v>
+      </c>
+      <c r="Q23">
+        <v>4.966330285128</v>
+      </c>
+      <c r="R23">
+        <v>29.797981710768</v>
+      </c>
+      <c r="S23">
+        <v>0.0006777940242926787</v>
+      </c>
+      <c r="T23">
+        <v>0.0004611662021888274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.214174</v>
+      </c>
+      <c r="H24">
+        <v>4.428348</v>
+      </c>
+      <c r="I24">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J24">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>37.65227266666667</v>
+      </c>
+      <c r="N24">
+        <v>112.956818</v>
+      </c>
+      <c r="O24">
+        <v>0.6248271225822742</v>
+      </c>
+      <c r="P24">
+        <v>0.6338211048453863</v>
+      </c>
+      <c r="Q24">
+        <v>83.36868317944401</v>
+      </c>
+      <c r="R24">
+        <v>500.2120990766639</v>
+      </c>
+      <c r="S24">
+        <v>0.01137797770748152</v>
+      </c>
+      <c r="T24">
+        <v>0.007741494583733037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.95419476364563</v>
-      </c>
-      <c r="H21">
-        <v>1.95419476364563</v>
-      </c>
-      <c r="I21">
-        <v>0.01922657229774113</v>
-      </c>
-      <c r="J21">
-        <v>0.01922657229774113</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.38006819187644</v>
-      </c>
-      <c r="N21">
-        <v>2.38006819187644</v>
-      </c>
-      <c r="O21">
-        <v>0.06620892015442324</v>
-      </c>
-      <c r="P21">
-        <v>0.06620892015442324</v>
-      </c>
-      <c r="Q21">
-        <v>4.651116797684462</v>
-      </c>
-      <c r="R21">
-        <v>4.651116797684462</v>
-      </c>
-      <c r="S21">
-        <v>0.001272970590104388</v>
-      </c>
-      <c r="T21">
-        <v>0.001272970590104388</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.214174</v>
+      </c>
+      <c r="H25">
+        <v>4.428348</v>
+      </c>
+      <c r="I25">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J25">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.49391266666667</v>
+      </c>
+      <c r="N25">
+        <v>49.481738</v>
+      </c>
+      <c r="O25">
+        <v>0.2737110740399041</v>
+      </c>
+      <c r="P25">
+        <v>0.2776509679019989</v>
+      </c>
+      <c r="Q25">
+        <v>36.520392584804</v>
+      </c>
+      <c r="R25">
+        <v>219.122355508824</v>
+      </c>
+      <c r="S25">
+        <v>0.004984224253656303</v>
+      </c>
+      <c r="T25">
+        <v>0.0033912305029759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.214174</v>
+      </c>
+      <c r="H26">
+        <v>4.428348</v>
+      </c>
+      <c r="I26">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J26">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.5652985</v>
+      </c>
+      <c r="N26">
+        <v>5.130597</v>
+      </c>
+      <c r="O26">
+        <v>0.04257028770905066</v>
+      </c>
+      <c r="P26">
+        <v>0.02878870630948921</v>
+      </c>
+      <c r="Q26">
+        <v>5.680017240939</v>
+      </c>
+      <c r="R26">
+        <v>22.720068963756</v>
+      </c>
+      <c r="S26">
+        <v>0.0007751964776318973</v>
+      </c>
+      <c r="T26">
+        <v>0.0003516254227949035</v>
       </c>
     </row>
   </sheetData>
